--- a/Caso de pruebas.xlsx
+++ b/Caso de pruebas.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61732CD4-4F54-41F9-BA8C-ACE983C8D3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47F86BD-D09B-4E01-A5F4-E886426D0DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLogin" sheetId="1" r:id="rId1"/>
     <sheet name="PDocumentos" sheetId="2" r:id="rId2"/>
     <sheet name="PAyuda" sheetId="4" r:id="rId3"/>
-    <sheet name="PConfigPerfil" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -67,84 +66,10 @@
     <t>CP_LOGIN_04</t>
   </si>
   <si>
-    <t>Volver al login y borrar los campos de user y contraseña</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Probar como responde el login ante una contraseña correcta</t>
-  </si>
-  <si>
-    <t>Login debe estar programado con su back end.
-Debe existir un usuaro y contraseñada creado correctamente</t>
-  </si>
-  <si>
-    <t>User: Admin
-Contraseña: 12345*</t>
-  </si>
-  <si>
-    <t>1. En el login colocar Admin en usuario.
-2. En contraseña colocar 12345*
-3. Presionar el botón aceptar</t>
-  </si>
-  <si>
-    <t>Se debe mostrar un mensaje de "Bienvenido" y luego ingresar al menú principal</t>
-  </si>
-  <si>
-    <t>Se debe mostrar el HOME o menú principal y el nombre del usuario en la parte superior derecha</t>
-  </si>
-  <si>
-    <t>Ingresar con un usuario que no existe</t>
-  </si>
-  <si>
-    <t>Recuperar la contraseña olvidada</t>
-  </si>
-  <si>
-    <t>User: Juanito
-Contraseña: 1234</t>
-  </si>
-  <si>
-    <t>Login debe estar programado con su back end.
-El usuario Juanito no debe existir en BBDD</t>
-  </si>
-  <si>
-    <t>1. En el login colocar Juanito en usuario.
-2. En contraseña colocar 1234
-3. Presionar el botón aceptar</t>
-  </si>
-  <si>
-    <t>Se debe mostrar un mensaje de Usuario no Existe, se debe registrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User: Prueba
-</t>
-  </si>
-  <si>
-    <t>Login debe estar programado con su back end.
-El usuario Prueba  debe existir en BBDD con correo: prueba1@gmail.com</t>
-  </si>
-  <si>
-    <t>1. En el login colocar Juanito en usuario.
-2. Presionar olvide mi contraseña
-3. En email colocar: prueba1@gmail.com 
-4. Revisar el email
-5. Agregar una nueva contraseña prueba12345*
-6. Confirmar contraseña nueva prueba12345*
-7. Realizar de nuevo el login con los datos prueba1 contraseña prueba12345*</t>
-  </si>
-  <si>
-    <t>Debe llegar un mail con un link para ingresar contraseña nueva y confirmarla.  
-El usuario se debe poder logear al confirmar su nueva contraseña</t>
-  </si>
-  <si>
-    <t>Probar como responde el login ante un usuario o correo inexistente en el sistema</t>
-  </si>
-  <si>
-    <t>Login debe estar programado con su back end. El usuario  debe estar creado con nombre de usuario/correo electronico</t>
   </si>
   <si>
     <t>User: admin@gmail.com
@@ -154,9 +79,6 @@
     <t>1. En el login colocar Correo electronico en usuario.
 2. En contraseña colocar QWERTY123#
 3. Presionar el botón Inicciar Sesion</t>
-  </si>
-  <si>
-    <t>Se debe mostrar un mensaje en rojo con el siguiente mensaje "Usuario incorrecto o no encontrado".</t>
   </si>
   <si>
     <t>P</t>
@@ -295,9 +217,6 @@
     <t>El sistema bloquea la carga y muestra error: “Archivo excede el tamaño permitido”</t>
   </si>
   <si>
-    <t xml:space="preserve">CP_AYUDA_01	</t>
-  </si>
-  <si>
     <t>CP_AYUDA_01</t>
   </si>
   <si>
@@ -314,12 +233,6 @@
   </si>
   <si>
     <t>El formulario debe estar cargado correctamente</t>
-  </si>
-  <si>
-    <t>Nombre: Juan Pérez
-Correo: juan@mail.com
-Asunto: Consulta
-Mensaje: ¿Cuál es el horario de atención?</t>
   </si>
   <si>
     <t>1. Completar todos los campos
@@ -365,9 +278,6 @@
   </si>
   <si>
     <t>Envío con mensaje muy largo</t>
-  </si>
-  <si>
-    <t>Mensaje &gt; 1000 caracteres</t>
   </si>
   <si>
     <t>1. Completar todos los campos
@@ -445,12 +355,19 @@
   <si>
     <t>Usuario logueado correctamente a través de Google</t>
   </si>
+  <si>
+    <t>Mensaje &gt; 200 caracteres</t>
+  </si>
+  <si>
+    <t>Asunto: Consulta
+Mensaje: ¿Cuál es el horario de atención?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -466,11 +383,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -576,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,40 +523,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,28 +557,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -907,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:AC991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -916,7 +810,7 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" customWidth="1"/>
@@ -1012,32 +906,32 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="D3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>16</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1063,32 +957,32 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="D4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -1117,29 +1011,29 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="37" t="s">
+      <c r="D5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>16</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -1168,29 +1062,29 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="D6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>16</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -13246,184 +13140,184 @@
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="I5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="F6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="H6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="21"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="23"/>
+      <c r="D12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13434,8 +13328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97CA1BB-5AEE-406D-A4A5-F957AB3C54A1}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13451,9 +13345,9 @@
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -13495,335 +13389,139 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="37" t="s">
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="37" t="s">
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E14" s="23"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K21" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DE1916-64DB-4681-B276-12F71384BAC6}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="K21" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
